--- a/mytools/TestReport.xlsx
+++ b/mytools/TestReport.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="B66" sheetId="1" r:id="rId1"/>
     <sheet name="B7" sheetId="2" r:id="rId2"/>
     <sheet name="N78_TX0" sheetId="3" r:id="rId3"/>
     <sheet name="N78_TX1" sheetId="4" r:id="rId4"/>
+    <sheet name="Overview" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
   <si>
     <t>Waveform</t>
   </si>
@@ -92,6 +93,36 @@
   </si>
   <si>
     <t>50+gap90+60</t>
+  </si>
+  <si>
+    <t>B66</t>
+  </si>
+  <si>
+    <t>QPA9901 + TQL9092</t>
+  </si>
+  <si>
+    <t>SW4.3.0</t>
+  </si>
+  <si>
+    <t>Scalling = -3dB</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>SKY66398 + TQL9092</t>
+  </si>
+  <si>
+    <t>N78</t>
+  </si>
+  <si>
+    <t>SKY66520+ TQL9092</t>
+  </si>
+  <si>
+    <t>Scalling = -5dB</t>
+  </si>
+  <si>
+    <t>VCC = 12.5V</t>
   </si>
 </sst>
 </file>
@@ -99,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,9 +151,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,67 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,17 +210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,12 +226,67 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,19 +297,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,163 +435,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +506,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -490,31 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,37 +599,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,137 +623,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,18 +764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,20 +1120,20 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.6636363636364" style="3" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="5.66666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.66363636363636" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="9.66666666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" style="3" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.66666666666667" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.66363636363636" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" style="3" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.66363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1197,7 +1216,7 @@
       <c r="M2" s="1">
         <v>20</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1239,7 +1258,7 @@
       <c r="M3" s="1">
         <v>20</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1281,7 +1300,7 @@
       <c r="M4" s="1">
         <v>20</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1325,7 +1344,7 @@
       <c r="M5" s="1">
         <v>20</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1367,7 +1386,7 @@
       <c r="M6" s="1">
         <v>20</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1409,7 +1428,7 @@
       <c r="M7" s="1">
         <v>20</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1453,7 +1472,7 @@
       <c r="M8" s="1">
         <v>20</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1495,7 +1514,7 @@
       <c r="M9" s="1">
         <v>20</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1537,7 +1556,7 @@
       <c r="M10" s="1">
         <v>20</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1562,18 +1581,18 @@
       <selection activeCell="N8" sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="12" width="18.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="18.6666666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5"/>
+    <col min="4" max="4" width="5.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="9.66363636363636" customWidth="1"/>
+    <col min="11" max="12" width="18.6636363636364" customWidth="1"/>
+    <col min="13" max="13" width="18.6636363636364" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1656,7 +1675,7 @@
       <c r="M2" s="1">
         <v>20</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1698,7 +1717,7 @@
       <c r="M3" s="1">
         <v>20</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1740,7 +1759,7 @@
       <c r="M4" s="1">
         <v>20</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1784,7 +1803,7 @@
       <c r="M5" s="1">
         <v>20</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1826,7 +1845,7 @@
       <c r="M6" s="1">
         <v>20</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1868,7 +1887,7 @@
       <c r="M7" s="1">
         <v>20</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1912,11 +1931,11 @@
       <c r="M8" s="1">
         <v>20</v>
       </c>
-      <c r="N8" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1929,9 +1948,8 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1944,7 +1962,6 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1966,19 +1983,19 @@
       <selection activeCell="N8" sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="35.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.66363636363636" customWidth="1"/>
+    <col min="4" max="4" width="4.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="9" max="9" width="8.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="35.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2061,7 +2078,7 @@
       <c r="M2" s="1">
         <v>25</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2103,7 +2120,7 @@
       <c r="M3" s="1">
         <v>25</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2145,7 +2162,7 @@
       <c r="M4" s="1">
         <v>25</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2189,7 +2206,7 @@
       <c r="M5" s="1">
         <v>25</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2231,7 +2248,7 @@
       <c r="M6" s="1">
         <v>25</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2275,7 +2292,7 @@
       <c r="M7" s="1">
         <v>25</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2317,7 +2334,7 @@
       <c r="M8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2368,24 +2385,24 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="35.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="18.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.66363636363636" customWidth="1"/>
+    <col min="4" max="4" width="4.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="6.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="5.66363636363636" customWidth="1"/>
+    <col min="7" max="7" width="6.66363636363636" customWidth="1"/>
+    <col min="8" max="8" width="5.66363636363636" customWidth="1"/>
+    <col min="9" max="9" width="8.66363636363636" customWidth="1"/>
+    <col min="10" max="10" width="35.5545454545455" customWidth="1"/>
+    <col min="11" max="11" width="7.66363636363636" customWidth="1"/>
+    <col min="12" max="13" width="18.6636363636364" customWidth="1"/>
+    <col min="14" max="14" width="8.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2468,7 +2485,7 @@
       <c r="M2" s="1">
         <v>25</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2510,7 +2527,7 @@
       <c r="M3" s="1">
         <v>25</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2552,7 +2569,7 @@
       <c r="M4" s="1">
         <v>25</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2596,7 +2613,7 @@
       <c r="M5" s="1">
         <v>25</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2638,7 +2655,7 @@
       <c r="M6" s="1">
         <v>25</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2682,7 +2699,7 @@
       <c r="M7" s="1">
         <v>25</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2724,7 +2741,7 @@
       <c r="M8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2767,4 +2784,71 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>